--- a/策划案&需求/2.3.xlsx
+++ b/策划案&需求/2.3.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\TheMirrorSeries_Plan\策划案&amp;需求\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\food\TheMirrorSeries_Plan\策划案&amp;需求\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11670" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11670" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="版本记录" sheetId="1" r:id="rId1"/>
@@ -1853,10 +1853,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">                         当正面碰撞到光线，玩家镜子会被击退；</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">                         一般地，击退距离为X</t>
     </r>
@@ -2073,6 +2069,33 @@
     <t>https://www.bilibili.com/video/av53158679?from=search&amp;seid=15069187781522878010 53秒</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                         当正面碰撞到光线，玩家镜子会被击退，</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>击退过程中玩家无法进行其他操作</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>；</t>
+    </r>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -2082,7 +2105,7 @@
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="0_ "/>
   </numFmts>
-  <fonts count="42" x14ac:knownFonts="1">
+  <fonts count="43" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2391,6 +2414,14 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="15">
@@ -3236,18 +3267,105 @@
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="20" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="14" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="15" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="18" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="8" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="16" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="8" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="8" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="8" borderId="41" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="17" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="19" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="12" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="13" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3260,74 +3378,11 @@
     <xf numFmtId="0" fontId="12" fillId="8" borderId="13" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="17" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="19" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="16" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="8" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="14" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="15" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="18" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="8" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="8" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="8" borderId="41" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3335,13 +3390,19 @@
     <xf numFmtId="0" fontId="1" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3356,18 +3417,6 @@
     <xf numFmtId="0" fontId="28" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3414,24 +3463,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="20" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5968,262 +5999,262 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:10" ht="18" x14ac:dyDescent="0.15">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="99" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="114"/>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="114"/>
-      <c r="G1" s="114"/>
-      <c r="H1" s="114"/>
-      <c r="I1" s="114"/>
-      <c r="J1" s="115"/>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="101"/>
     </row>
     <row r="2" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="123" t="s">
+      <c r="A2" s="102" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="123"/>
-      <c r="C2" s="123" t="s">
+      <c r="B2" s="102"/>
+      <c r="C2" s="102" t="s">
         <v>189</v>
       </c>
-      <c r="D2" s="123"/>
-      <c r="E2" s="123"/>
-      <c r="F2" s="123"/>
-      <c r="G2" s="123"/>
-      <c r="H2" s="123"/>
-      <c r="I2" s="123"/>
-      <c r="J2" s="123"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="102"/>
+      <c r="J2" s="102"/>
     </row>
     <row r="3" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="123" t="s">
+      <c r="A3" s="102" t="s">
         <v>91</v>
       </c>
-      <c r="B3" s="123"/>
-      <c r="C3" s="123" t="s">
+      <c r="B3" s="102"/>
+      <c r="C3" s="102" t="s">
         <v>94</v>
       </c>
-      <c r="D3" s="123"/>
-      <c r="E3" s="123"/>
-      <c r="F3" s="123"/>
-      <c r="G3" s="123"/>
-      <c r="H3" s="123"/>
-      <c r="I3" s="123"/>
-      <c r="J3" s="123"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="102"/>
     </row>
     <row r="4" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="123" t="s">
+      <c r="A4" s="102" t="s">
         <v>92</v>
       </c>
-      <c r="B4" s="123"/>
-      <c r="C4" s="123" t="s">
+      <c r="B4" s="102"/>
+      <c r="C4" s="102" t="s">
         <v>95</v>
       </c>
-      <c r="D4" s="123"/>
-      <c r="E4" s="123"/>
-      <c r="F4" s="123"/>
-      <c r="G4" s="123"/>
-      <c r="H4" s="123"/>
-      <c r="I4" s="123"/>
-      <c r="J4" s="123"/>
+      <c r="D4" s="102"/>
+      <c r="E4" s="102"/>
+      <c r="F4" s="102"/>
+      <c r="G4" s="102"/>
+      <c r="H4" s="102"/>
+      <c r="I4" s="102"/>
+      <c r="J4" s="102"/>
     </row>
     <row r="5" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="123" t="s">
+      <c r="A5" s="102" t="s">
         <v>93</v>
       </c>
-      <c r="B5" s="123"/>
-      <c r="C5" s="123" t="s">
+      <c r="B5" s="102"/>
+      <c r="C5" s="102" t="s">
         <v>96</v>
       </c>
-      <c r="D5" s="123"/>
-      <c r="E5" s="123"/>
-      <c r="F5" s="123"/>
-      <c r="G5" s="123"/>
-      <c r="H5" s="123"/>
-      <c r="I5" s="123"/>
-      <c r="J5" s="123"/>
+      <c r="D5" s="102"/>
+      <c r="E5" s="102"/>
+      <c r="F5" s="102"/>
+      <c r="G5" s="102"/>
+      <c r="H5" s="102"/>
+      <c r="I5" s="102"/>
+      <c r="J5" s="102"/>
     </row>
     <row r="6" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="123" t="s">
+      <c r="A6" s="102" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="123"/>
-      <c r="C6" s="112" t="s">
+      <c r="B6" s="102"/>
+      <c r="C6" s="103" t="s">
         <v>90</v>
       </c>
-      <c r="D6" s="112"/>
-      <c r="E6" s="112"/>
-      <c r="F6" s="112"/>
-      <c r="G6" s="112"/>
-      <c r="H6" s="112"/>
-      <c r="I6" s="112"/>
-      <c r="J6" s="112"/>
+      <c r="D6" s="103"/>
+      <c r="E6" s="103"/>
+      <c r="F6" s="103"/>
+      <c r="G6" s="103"/>
+      <c r="H6" s="103"/>
+      <c r="I6" s="103"/>
+      <c r="J6" s="103"/>
     </row>
     <row r="7" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A7" s="123" t="s">
+      <c r="A7" s="102" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="123"/>
-      <c r="C7" s="123" t="s">
+      <c r="B7" s="102"/>
+      <c r="C7" s="102" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="123"/>
-      <c r="E7" s="123"/>
-      <c r="F7" s="123"/>
-      <c r="G7" s="123"/>
-      <c r="H7" s="123"/>
-      <c r="I7" s="123"/>
-      <c r="J7" s="123"/>
+      <c r="D7" s="102"/>
+      <c r="E7" s="102"/>
+      <c r="F7" s="102"/>
+      <c r="G7" s="102"/>
+      <c r="H7" s="102"/>
+      <c r="I7" s="102"/>
+      <c r="J7" s="102"/>
     </row>
     <row r="8" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="123" t="s">
+      <c r="A8" s="102" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="123"/>
-      <c r="C8" s="112" t="s">
+      <c r="B8" s="102"/>
+      <c r="C8" s="103" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="112"/>
-      <c r="E8" s="112"/>
-      <c r="F8" s="112"/>
-      <c r="G8" s="112"/>
-      <c r="H8" s="112"/>
-      <c r="I8" s="112"/>
-      <c r="J8" s="112"/>
+      <c r="D8" s="103"/>
+      <c r="E8" s="103"/>
+      <c r="F8" s="103"/>
+      <c r="G8" s="103"/>
+      <c r="H8" s="103"/>
+      <c r="I8" s="103"/>
+      <c r="J8" s="103"/>
     </row>
     <row r="9" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A9" s="110" t="s">
+      <c r="A9" s="104" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="111"/>
-      <c r="C9" s="112" t="s">
+      <c r="B9" s="105"/>
+      <c r="C9" s="103" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="112"/>
-      <c r="E9" s="112"/>
-      <c r="F9" s="112"/>
-      <c r="G9" s="112"/>
-      <c r="H9" s="112"/>
-      <c r="I9" s="112"/>
-      <c r="J9" s="112"/>
+      <c r="D9" s="103"/>
+      <c r="E9" s="103"/>
+      <c r="F9" s="103"/>
+      <c r="G9" s="103"/>
+      <c r="H9" s="103"/>
+      <c r="I9" s="103"/>
+      <c r="J9" s="103"/>
     </row>
     <row r="10" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A10" s="110" t="s">
+      <c r="A10" s="104" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="111"/>
-      <c r="C10" s="112"/>
-      <c r="D10" s="112"/>
-      <c r="E10" s="112"/>
-      <c r="F10" s="112"/>
-      <c r="G10" s="112"/>
-      <c r="H10" s="112"/>
-      <c r="I10" s="112"/>
-      <c r="J10" s="112"/>
+      <c r="B10" s="105"/>
+      <c r="C10" s="103"/>
+      <c r="D10" s="103"/>
+      <c r="E10" s="103"/>
+      <c r="F10" s="103"/>
+      <c r="G10" s="103"/>
+      <c r="H10" s="103"/>
+      <c r="I10" s="103"/>
+      <c r="J10" s="103"/>
     </row>
     <row r="11" spans="1:10" ht="18" x14ac:dyDescent="0.15">
-      <c r="A11" s="113" t="s">
+      <c r="A11" s="99" t="s">
         <v>195</v>
       </c>
-      <c r="B11" s="114"/>
-      <c r="C11" s="114"/>
-      <c r="D11" s="114"/>
-      <c r="E11" s="114"/>
-      <c r="F11" s="114"/>
-      <c r="G11" s="114"/>
-      <c r="H11" s="114"/>
-      <c r="I11" s="114"/>
-      <c r="J11" s="115"/>
+      <c r="B11" s="100"/>
+      <c r="C11" s="100"/>
+      <c r="D11" s="100"/>
+      <c r="E11" s="100"/>
+      <c r="F11" s="100"/>
+      <c r="G11" s="100"/>
+      <c r="H11" s="100"/>
+      <c r="I11" s="100"/>
+      <c r="J11" s="101"/>
     </row>
     <row r="12" spans="1:10" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A12" s="116" t="s">
+      <c r="A12" s="106" t="s">
         <v>244</v>
       </c>
-      <c r="B12" s="116"/>
-      <c r="C12" s="116"/>
-      <c r="D12" s="116"/>
-      <c r="E12" s="116"/>
-      <c r="F12" s="116"/>
-      <c r="G12" s="116"/>
-      <c r="H12" s="116"/>
-      <c r="I12" s="116"/>
-      <c r="J12" s="117"/>
+      <c r="B12" s="106"/>
+      <c r="C12" s="106"/>
+      <c r="D12" s="106"/>
+      <c r="E12" s="106"/>
+      <c r="F12" s="106"/>
+      <c r="G12" s="106"/>
+      <c r="H12" s="106"/>
+      <c r="I12" s="106"/>
+      <c r="J12" s="107"/>
     </row>
     <row r="13" spans="1:10" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A13" s="121" t="s">
+      <c r="A13" s="111" t="s">
         <v>270</v>
       </c>
-      <c r="B13" s="121"/>
-      <c r="C13" s="121"/>
-      <c r="D13" s="121"/>
-      <c r="E13" s="121"/>
-      <c r="F13" s="121"/>
-      <c r="G13" s="121"/>
-      <c r="H13" s="121"/>
-      <c r="I13" s="121"/>
-      <c r="J13" s="122"/>
+      <c r="B13" s="111"/>
+      <c r="C13" s="111"/>
+      <c r="D13" s="111"/>
+      <c r="E13" s="111"/>
+      <c r="F13" s="111"/>
+      <c r="G13" s="111"/>
+      <c r="H13" s="111"/>
+      <c r="I13" s="111"/>
+      <c r="J13" s="112"/>
     </row>
     <row r="14" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A14" s="118"/>
-      <c r="B14" s="119"/>
-      <c r="C14" s="119"/>
-      <c r="D14" s="119"/>
-      <c r="E14" s="119"/>
-      <c r="F14" s="119"/>
-      <c r="G14" s="119"/>
-      <c r="H14" s="119"/>
-      <c r="I14" s="119"/>
-      <c r="J14" s="120"/>
+      <c r="A14" s="108"/>
+      <c r="B14" s="109"/>
+      <c r="C14" s="109"/>
+      <c r="D14" s="109"/>
+      <c r="E14" s="109"/>
+      <c r="F14" s="109"/>
+      <c r="G14" s="109"/>
+      <c r="H14" s="109"/>
+      <c r="I14" s="109"/>
+      <c r="J14" s="110"/>
     </row>
     <row r="15" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A15" s="106"/>
-      <c r="B15" s="106"/>
-      <c r="C15" s="106"/>
-      <c r="D15" s="106"/>
-      <c r="E15" s="106"/>
-      <c r="F15" s="106"/>
-      <c r="G15" s="106"/>
-      <c r="H15" s="106"/>
-      <c r="I15" s="106"/>
-      <c r="J15" s="107"/>
+      <c r="A15" s="113"/>
+      <c r="B15" s="113"/>
+      <c r="C15" s="113"/>
+      <c r="D15" s="113"/>
+      <c r="E15" s="113"/>
+      <c r="F15" s="113"/>
+      <c r="G15" s="113"/>
+      <c r="H15" s="113"/>
+      <c r="I15" s="113"/>
+      <c r="J15" s="114"/>
     </row>
     <row r="16" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A16" s="106"/>
-      <c r="B16" s="106"/>
-      <c r="C16" s="106"/>
-      <c r="D16" s="106"/>
-      <c r="E16" s="106"/>
-      <c r="F16" s="106"/>
-      <c r="G16" s="106"/>
-      <c r="H16" s="106"/>
-      <c r="I16" s="106"/>
-      <c r="J16" s="107"/>
+      <c r="A16" s="113"/>
+      <c r="B16" s="113"/>
+      <c r="C16" s="113"/>
+      <c r="D16" s="113"/>
+      <c r="E16" s="113"/>
+      <c r="F16" s="113"/>
+      <c r="G16" s="113"/>
+      <c r="H16" s="113"/>
+      <c r="I16" s="113"/>
+      <c r="J16" s="114"/>
     </row>
     <row r="17" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="106"/>
-      <c r="B17" s="106"/>
-      <c r="C17" s="106"/>
-      <c r="D17" s="106"/>
-      <c r="E17" s="106"/>
-      <c r="F17" s="106"/>
-      <c r="G17" s="106"/>
-      <c r="H17" s="106"/>
-      <c r="I17" s="106"/>
-      <c r="J17" s="107"/>
+      <c r="A17" s="113"/>
+      <c r="B17" s="113"/>
+      <c r="C17" s="113"/>
+      <c r="D17" s="113"/>
+      <c r="E17" s="113"/>
+      <c r="F17" s="113"/>
+      <c r="G17" s="113"/>
+      <c r="H17" s="113"/>
+      <c r="I17" s="113"/>
+      <c r="J17" s="114"/>
     </row>
     <row r="18" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A18" s="106"/>
-      <c r="B18" s="106"/>
-      <c r="C18" s="106"/>
-      <c r="D18" s="106"/>
-      <c r="E18" s="106"/>
-      <c r="F18" s="106"/>
-      <c r="G18" s="106"/>
-      <c r="H18" s="106"/>
-      <c r="I18" s="106"/>
-      <c r="J18" s="107"/>
+      <c r="A18" s="113"/>
+      <c r="B18" s="113"/>
+      <c r="C18" s="113"/>
+      <c r="D18" s="113"/>
+      <c r="E18" s="113"/>
+      <c r="F18" s="113"/>
+      <c r="G18" s="113"/>
+      <c r="H18" s="113"/>
+      <c r="I18" s="113"/>
+      <c r="J18" s="114"/>
     </row>
     <row r="19" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A19" s="33"/>
@@ -6274,146 +6305,113 @@
       <c r="J22" s="34"/>
     </row>
     <row r="23" spans="1:10" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A23" s="108"/>
-      <c r="B23" s="108"/>
-      <c r="C23" s="108"/>
-      <c r="D23" s="108"/>
-      <c r="E23" s="108"/>
-      <c r="F23" s="108"/>
-      <c r="G23" s="108"/>
-      <c r="H23" s="108"/>
-      <c r="I23" s="108"/>
-      <c r="J23" s="109"/>
+      <c r="A23" s="115"/>
+      <c r="B23" s="115"/>
+      <c r="C23" s="115"/>
+      <c r="D23" s="115"/>
+      <c r="E23" s="115"/>
+      <c r="F23" s="115"/>
+      <c r="G23" s="115"/>
+      <c r="H23" s="115"/>
+      <c r="I23" s="115"/>
+      <c r="J23" s="116"/>
     </row>
     <row r="24" spans="1:10" ht="18" x14ac:dyDescent="0.15">
-      <c r="A24" s="101" t="s">
+      <c r="A24" s="117" t="s">
         <v>8</v>
       </c>
-      <c r="B24" s="102"/>
-      <c r="C24" s="102"/>
-      <c r="D24" s="102"/>
-      <c r="E24" s="102"/>
-      <c r="F24" s="102"/>
-      <c r="G24" s="102"/>
-      <c r="H24" s="102"/>
-      <c r="I24" s="102"/>
-      <c r="J24" s="103"/>
+      <c r="B24" s="118"/>
+      <c r="C24" s="118"/>
+      <c r="D24" s="118"/>
+      <c r="E24" s="118"/>
+      <c r="F24" s="118"/>
+      <c r="G24" s="118"/>
+      <c r="H24" s="118"/>
+      <c r="I24" s="118"/>
+      <c r="J24" s="119"/>
     </row>
     <row r="25" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A25" s="104" t="s">
+      <c r="A25" s="120" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="104"/>
-      <c r="C25" s="95" t="s">
+      <c r="B25" s="120"/>
+      <c r="C25" s="121" t="s">
         <v>10</v>
       </c>
-      <c r="D25" s="96"/>
-      <c r="E25" s="104" t="s">
+      <c r="D25" s="122"/>
+      <c r="E25" s="120" t="s">
         <v>11</v>
       </c>
-      <c r="F25" s="104"/>
-      <c r="G25" s="104"/>
-      <c r="H25" s="105" t="s">
+      <c r="F25" s="120"/>
+      <c r="G25" s="120"/>
+      <c r="H25" s="123" t="s">
         <v>12</v>
       </c>
-      <c r="I25" s="105"/>
-      <c r="J25" s="105"/>
+      <c r="I25" s="123"/>
+      <c r="J25" s="123"/>
     </row>
     <row r="26" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="93" t="s">
+      <c r="A26" s="124" t="s">
         <v>41</v>
       </c>
-      <c r="B26" s="94"/>
-      <c r="C26" s="95" t="s">
+      <c r="B26" s="125"/>
+      <c r="C26" s="121" t="s">
         <v>42</v>
       </c>
-      <c r="D26" s="96"/>
-      <c r="E26" s="95" t="s">
+      <c r="D26" s="122"/>
+      <c r="E26" s="121" t="s">
         <v>190</v>
       </c>
-      <c r="F26" s="97"/>
-      <c r="G26" s="96"/>
-      <c r="H26" s="98" t="s">
+      <c r="F26" s="126"/>
+      <c r="G26" s="122"/>
+      <c r="H26" s="127" t="s">
         <v>45</v>
       </c>
-      <c r="I26" s="99"/>
-      <c r="J26" s="100"/>
+      <c r="I26" s="128"/>
+      <c r="J26" s="129"/>
     </row>
     <row r="27" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="93" t="s">
+      <c r="A27" s="124" t="s">
         <v>266</v>
       </c>
-      <c r="B27" s="94"/>
-      <c r="C27" s="95" t="s">
+      <c r="B27" s="125"/>
+      <c r="C27" s="121" t="s">
         <v>267</v>
       </c>
-      <c r="D27" s="96"/>
-      <c r="E27" s="95" t="s">
+      <c r="D27" s="122"/>
+      <c r="E27" s="121" t="s">
         <v>271</v>
       </c>
-      <c r="F27" s="97"/>
-      <c r="G27" s="96"/>
-      <c r="H27" s="98" t="s">
+      <c r="F27" s="126"/>
+      <c r="G27" s="122"/>
+      <c r="H27" s="127" t="s">
         <v>268</v>
       </c>
-      <c r="I27" s="99"/>
-      <c r="J27" s="100"/>
+      <c r="I27" s="128"/>
+      <c r="J27" s="129"/>
     </row>
     <row r="28" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A28" s="93" t="s">
+      <c r="A28" s="124" t="s">
+        <v>327</v>
+      </c>
+      <c r="B28" s="125"/>
+      <c r="C28" s="121" t="s">
         <v>328</v>
       </c>
-      <c r="B28" s="94"/>
-      <c r="C28" s="95" t="s">
+      <c r="D28" s="122"/>
+      <c r="E28" s="121" t="s">
         <v>329</v>
       </c>
-      <c r="D28" s="96"/>
-      <c r="E28" s="95" t="s">
+      <c r="F28" s="126"/>
+      <c r="G28" s="122"/>
+      <c r="H28" s="127" t="s">
         <v>330</v>
       </c>
-      <c r="F28" s="97"/>
-      <c r="G28" s="96"/>
-      <c r="H28" s="98" t="s">
-        <v>331</v>
-      </c>
-      <c r="I28" s="99"/>
-      <c r="J28" s="100"/>
+      <c r="I28" s="128"/>
+      <c r="J28" s="129"/>
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:J2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:J3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:J4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:J8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:J9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:J10"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="A12:J12"/>
-    <mergeCell ref="A14:J14"/>
-    <mergeCell ref="A13:J13"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="A16:J16"/>
-    <mergeCell ref="A17:J17"/>
-    <mergeCell ref="A18:J18"/>
-    <mergeCell ref="A23:J23"/>
-    <mergeCell ref="A24:J24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="H25:J25"/>
     <mergeCell ref="A28:B28"/>
     <mergeCell ref="C28:D28"/>
     <mergeCell ref="E28:G28"/>
@@ -6426,6 +6424,39 @@
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="E27:G27"/>
     <mergeCell ref="H27:J27"/>
+    <mergeCell ref="A24:J24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="A16:J16"/>
+    <mergeCell ref="A17:J17"/>
+    <mergeCell ref="A18:J18"/>
+    <mergeCell ref="A23:J23"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:J10"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="A14:J14"/>
+    <mergeCell ref="A13:J13"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:J8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:J9"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:J4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:J2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:J3"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6436,8 +6467,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V319"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A73" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H85" sqref="H85"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A178" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E185" sqref="E185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -6463,27 +6494,27 @@
   <sheetData>
     <row r="1" spans="1:20" ht="29.25" x14ac:dyDescent="0.15">
       <c r="A1" s="6"/>
-      <c r="B1" s="124" t="s">
+      <c r="B1" s="132" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="124"/>
-      <c r="D1" s="124"/>
-      <c r="E1" s="124"/>
-      <c r="F1" s="124"/>
-      <c r="G1" s="124"/>
-      <c r="H1" s="124"/>
-      <c r="I1" s="124"/>
-      <c r="J1" s="124"/>
-      <c r="K1" s="124"/>
-      <c r="L1" s="124"/>
-      <c r="M1" s="124"/>
-      <c r="N1" s="124"/>
-      <c r="O1" s="124"/>
-      <c r="P1" s="124"/>
-      <c r="Q1" s="124"/>
-      <c r="R1" s="124"/>
-      <c r="S1" s="124"/>
-      <c r="T1" s="124"/>
+      <c r="C1" s="132"/>
+      <c r="D1" s="132"/>
+      <c r="E1" s="132"/>
+      <c r="F1" s="132"/>
+      <c r="G1" s="132"/>
+      <c r="H1" s="132"/>
+      <c r="I1" s="132"/>
+      <c r="J1" s="132"/>
+      <c r="K1" s="132"/>
+      <c r="L1" s="132"/>
+      <c r="M1" s="132"/>
+      <c r="N1" s="132"/>
+      <c r="O1" s="132"/>
+      <c r="P1" s="132"/>
+      <c r="Q1" s="132"/>
+      <c r="R1" s="132"/>
+      <c r="S1" s="132"/>
+      <c r="T1" s="132"/>
     </row>
     <row r="3" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B3" s="7"/>
@@ -7372,27 +7403,27 @@
     </row>
     <row r="183" spans="5:11" s="83" customFormat="1" x14ac:dyDescent="0.15">
       <c r="E183" s="66" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="184" spans="5:11" s="66" customFormat="1" x14ac:dyDescent="0.15">
       <c r="E184" s="66" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="185" spans="5:11" s="66" customFormat="1" x14ac:dyDescent="0.15">
       <c r="E185" s="66" t="s">
-        <v>315</v>
+        <v>341</v>
       </c>
     </row>
     <row r="186" spans="5:11" s="66" customFormat="1" ht="19.5" x14ac:dyDescent="0.15">
       <c r="E186" s="66" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="187" spans="5:11" s="66" customFormat="1" ht="19.5" x14ac:dyDescent="0.15">
       <c r="E187" s="66" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="188" spans="5:11" s="83" customFormat="1" x14ac:dyDescent="0.15">
@@ -7424,10 +7455,10 @@
       <c r="E193" s="66"/>
     </row>
     <row r="200" spans="5:13" x14ac:dyDescent="0.15">
-      <c r="J200" s="125" t="s">
+      <c r="J200" s="133" t="s">
         <v>272</v>
       </c>
-      <c r="K200" s="125"/>
+      <c r="K200" s="133"/>
       <c r="L200" s="87" t="s">
         <v>273</v>
       </c>
@@ -7436,10 +7467,10 @@
       </c>
     </row>
     <row r="201" spans="5:13" ht="19.5" x14ac:dyDescent="0.15">
-      <c r="J201" s="126" t="s">
+      <c r="J201" s="130" t="s">
         <v>296</v>
       </c>
-      <c r="K201" s="126"/>
+      <c r="K201" s="130"/>
       <c r="L201" s="85" t="s">
         <v>297</v>
       </c>
@@ -7448,10 +7479,10 @@
       </c>
     </row>
     <row r="202" spans="5:13" ht="19.5" x14ac:dyDescent="0.15">
-      <c r="J202" s="126" t="s">
+      <c r="J202" s="130" t="s">
         <v>284</v>
       </c>
-      <c r="K202" s="126"/>
+      <c r="K202" s="130"/>
       <c r="L202" s="85" t="s">
         <v>286</v>
       </c>
@@ -7460,10 +7491,10 @@
       </c>
     </row>
     <row r="203" spans="5:13" ht="19.5" x14ac:dyDescent="0.15">
-      <c r="J203" s="126" t="s">
+      <c r="J203" s="130" t="s">
         <v>285</v>
       </c>
-      <c r="K203" s="126"/>
+      <c r="K203" s="130"/>
       <c r="L203" s="85" t="s">
         <v>287</v>
       </c>
@@ -7472,12 +7503,12 @@
       </c>
     </row>
     <row r="204" spans="5:13" ht="19.5" x14ac:dyDescent="0.15">
-      <c r="J204" s="127" t="s">
-        <v>317</v>
-      </c>
-      <c r="K204" s="127"/>
+      <c r="J204" s="134" t="s">
+        <v>316</v>
+      </c>
+      <c r="K204" s="134"/>
       <c r="L204" s="92" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="M204" s="92">
         <v>7</v>
@@ -7488,10 +7519,10 @@
       <c r="F205" s="85"/>
       <c r="G205" s="85"/>
       <c r="H205" s="85"/>
-      <c r="J205" s="126" t="s">
+      <c r="J205" s="130" t="s">
         <v>275</v>
       </c>
-      <c r="K205" s="126"/>
+      <c r="K205" s="130"/>
       <c r="L205" s="85" t="s">
         <v>293</v>
       </c>
@@ -7504,10 +7535,10 @@
       <c r="F206" s="85"/>
       <c r="G206" s="85"/>
       <c r="H206" s="85"/>
-      <c r="J206" s="126" t="s">
+      <c r="J206" s="130" t="s">
         <v>276</v>
       </c>
-      <c r="K206" s="126"/>
+      <c r="K206" s="130"/>
       <c r="L206" s="85" t="s">
         <v>274</v>
       </c>
@@ -7520,10 +7551,10 @@
       <c r="F207" s="85"/>
       <c r="G207" s="85"/>
       <c r="H207" s="85"/>
-      <c r="J207" s="126" t="s">
+      <c r="J207" s="130" t="s">
         <v>277</v>
       </c>
-      <c r="K207" s="126"/>
+      <c r="K207" s="130"/>
       <c r="L207" s="85" t="s">
         <v>282</v>
       </c>
@@ -7536,10 +7567,10 @@
       <c r="F208" s="85"/>
       <c r="G208" s="85"/>
       <c r="H208" s="85"/>
-      <c r="J208" s="126" t="s">
+      <c r="J208" s="130" t="s">
         <v>278</v>
       </c>
-      <c r="K208" s="126"/>
+      <c r="K208" s="130"/>
       <c r="L208" s="85" t="s">
         <v>280</v>
       </c>
@@ -7552,10 +7583,10 @@
       <c r="F209" s="85"/>
       <c r="G209" s="85"/>
       <c r="H209" s="85"/>
-      <c r="J209" s="126" t="s">
+      <c r="J209" s="130" t="s">
         <v>279</v>
       </c>
-      <c r="K209" s="126"/>
+      <c r="K209" s="130"/>
       <c r="L209" s="85" t="s">
         <v>281</v>
       </c>
@@ -7568,10 +7599,10 @@
       <c r="F210" s="85"/>
       <c r="G210" s="85"/>
       <c r="H210" s="85"/>
-      <c r="J210" s="128" t="s">
+      <c r="J210" s="131" t="s">
         <v>283</v>
       </c>
-      <c r="K210" s="128"/>
+      <c r="K210" s="131"/>
       <c r="L210" s="86" t="s">
         <v>288</v>
       </c>
@@ -7668,7 +7699,7 @@
     </row>
     <row r="226" spans="5:12" x14ac:dyDescent="0.15">
       <c r="E226" s="46" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="227" spans="5:12" x14ac:dyDescent="0.15">
@@ -7708,7 +7739,7 @@
       <c r="E237" s="46"/>
       <c r="K237" s="49"/>
       <c r="L237" s="46" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="238" spans="5:12" x14ac:dyDescent="0.15">
@@ -7731,7 +7762,7 @@
       <c r="E243" s="46"/>
       <c r="I243" s="50"/>
       <c r="L243" s="46" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="244" spans="1:12" x14ac:dyDescent="0.15">
@@ -7748,14 +7779,14 @@
         <v>252</v>
       </c>
       <c r="H246" s="49" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I246" s="50"/>
     </row>
     <row r="247" spans="1:12" x14ac:dyDescent="0.15">
       <c r="E247" s="46"/>
       <c r="H247" s="49" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I247" s="50"/>
     </row>
@@ -7828,7 +7859,7 @@
     <row r="260" spans="1:9" x14ac:dyDescent="0.15">
       <c r="E260" s="46"/>
       <c r="F260" s="46" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H260" s="49"/>
       <c r="I260" s="50"/>
@@ -8035,18 +8066,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B1:T1"/>
+    <mergeCell ref="J200:K200"/>
+    <mergeCell ref="J205:K205"/>
+    <mergeCell ref="J206:K206"/>
+    <mergeCell ref="J207:K207"/>
+    <mergeCell ref="J204:K204"/>
     <mergeCell ref="J208:K208"/>
     <mergeCell ref="J209:K209"/>
     <mergeCell ref="J210:K210"/>
     <mergeCell ref="J201:K201"/>
     <mergeCell ref="J203:K203"/>
     <mergeCell ref="J202:K202"/>
-    <mergeCell ref="B1:T1"/>
-    <mergeCell ref="J200:K200"/>
-    <mergeCell ref="J205:K205"/>
-    <mergeCell ref="J206:K206"/>
-    <mergeCell ref="J207:K207"/>
-    <mergeCell ref="J204:K204"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8137,7 +8168,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D7" workbookViewId="0">
+    <sheetView topLeftCell="D7" workbookViewId="0">
       <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
@@ -8158,10 +8189,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B2" s="135" t="s">
+      <c r="B2" s="137" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="136"/>
+      <c r="C2" s="138"/>
       <c r="D2" s="39" t="s">
         <v>19</v>
       </c>
@@ -8174,58 +8205,58 @@
       <c r="G2" s="39" t="s">
         <v>106</v>
       </c>
-      <c r="H2" s="129" t="s">
+      <c r="H2" s="139" t="s">
         <v>134</v>
       </c>
-      <c r="I2" s="130"/>
+      <c r="I2" s="140"/>
     </row>
     <row r="3" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B3" s="133" t="s">
+      <c r="B3" s="135" t="s">
         <v>79</v>
       </c>
-      <c r="C3" s="134"/>
+      <c r="C3" s="136"/>
       <c r="D3" s="40"/>
       <c r="E3" s="41"/>
       <c r="F3" s="41"/>
       <c r="G3" s="41"/>
-      <c r="H3" s="131"/>
-      <c r="I3" s="132"/>
+      <c r="H3" s="141"/>
+      <c r="I3" s="142"/>
     </row>
     <row r="4" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B4" s="133" t="s">
+      <c r="B4" s="135" t="s">
         <v>80</v>
       </c>
-      <c r="C4" s="134"/>
+      <c r="C4" s="136"/>
       <c r="D4" s="40"/>
       <c r="E4" s="41"/>
       <c r="F4" s="41"/>
       <c r="G4" s="41"/>
-      <c r="H4" s="131"/>
-      <c r="I4" s="132"/>
+      <c r="H4" s="141"/>
+      <c r="I4" s="142"/>
     </row>
     <row r="5" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B5" s="133" t="s">
+      <c r="B5" s="135" t="s">
         <v>81</v>
       </c>
-      <c r="C5" s="134"/>
+      <c r="C5" s="136"/>
       <c r="D5" s="40"/>
       <c r="E5" s="41"/>
       <c r="F5" s="41"/>
       <c r="G5" s="41"/>
-      <c r="H5" s="131"/>
-      <c r="I5" s="132"/>
+      <c r="H5" s="141"/>
+      <c r="I5" s="142"/>
     </row>
     <row r="6" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B6" s="133" t="s">
+      <c r="B6" s="135" t="s">
         <v>82</v>
       </c>
-      <c r="C6" s="134"/>
+      <c r="C6" s="136"/>
       <c r="D6" s="40"/>
       <c r="E6" s="40"/>
       <c r="F6" s="41"/>
       <c r="G6" s="41"/>
-      <c r="H6" s="131"/>
-      <c r="I6" s="132"/>
+      <c r="H6" s="141"/>
+      <c r="I6" s="142"/>
     </row>
     <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="B8" s="42" t="s">
@@ -8261,8 +8292,8 @@
       <c r="L8" s="56" t="s">
         <v>88</v>
       </c>
-      <c r="M8" s="153" t="s">
-        <v>337</v>
+      <c r="M8" s="93" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="49.5" x14ac:dyDescent="0.15">
@@ -8579,32 +8610,32 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="20" spans="2:13" s="156" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B20" s="154">
+    <row r="20" spans="2:13" s="96" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B20" s="94">
         <v>11</v>
       </c>
-      <c r="C20" s="154" t="s">
+      <c r="C20" s="94" t="s">
         <v>122</v>
       </c>
-      <c r="D20" s="155" t="s">
+      <c r="D20" s="95" t="s">
         <v>123</v>
       </c>
-      <c r="E20" s="154" t="s">
+      <c r="E20" s="94" t="s">
         <v>109</v>
       </c>
-      <c r="F20" s="154"/>
-      <c r="G20" s="155" t="s">
+      <c r="F20" s="94"/>
+      <c r="G20" s="95" t="s">
         <v>126</v>
       </c>
-      <c r="H20" s="154"/>
-      <c r="I20" s="154" t="s">
+      <c r="H20" s="94"/>
+      <c r="I20" s="94" t="s">
         <v>153</v>
       </c>
-      <c r="J20" s="154" t="s">
-        <v>338</v>
-      </c>
-      <c r="K20" s="154"/>
-      <c r="L20" s="154">
+      <c r="J20" s="94" t="s">
+        <v>337</v>
+      </c>
+      <c r="K20" s="94"/>
+      <c r="L20" s="94">
         <v>1</v>
       </c>
     </row>
@@ -8623,7 +8654,7 @@
       </c>
       <c r="F21" s="38"/>
       <c r="G21" s="57" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H21" s="38"/>
       <c r="I21" s="1" t="s">
@@ -8632,8 +8663,8 @@
       <c r="J21" s="38"/>
       <c r="K21" s="38"/>
       <c r="L21" s="38"/>
-      <c r="M21" s="157" t="s">
-        <v>339</v>
+      <c r="M21" s="97" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="22" spans="2:13" ht="16.5" x14ac:dyDescent="0.15">
@@ -8676,19 +8707,19 @@
       </c>
       <c r="F23" s="79"/>
       <c r="G23" s="78" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H23" s="79"/>
       <c r="I23" s="78" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="J23" s="78" t="s">
         <v>256</v>
       </c>
       <c r="K23" s="79"/>
       <c r="L23" s="80"/>
-      <c r="M23" s="158" t="s">
-        <v>340</v>
+      <c r="M23" s="98" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="24" spans="2:13" s="81" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -8699,26 +8730,26 @@
         <v>122</v>
       </c>
       <c r="D24" s="78" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E24" s="78" t="s">
         <v>102</v>
       </c>
       <c r="F24" s="79"/>
       <c r="G24" s="78" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H24" s="79"/>
       <c r="I24" s="78" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="J24" s="78" t="s">
         <v>256</v>
       </c>
       <c r="K24" s="79"/>
       <c r="L24" s="80"/>
-      <c r="M24" s="158" t="s">
-        <v>341</v>
+      <c r="M24" s="98" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="25" spans="2:13" ht="16.5" x14ac:dyDescent="0.15">
@@ -8759,16 +8790,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H6:I6"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B6:C6"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="H6:I6"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <hyperlinks>
@@ -8804,10 +8835,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B2" s="135" t="s">
+      <c r="B2" s="137" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="136"/>
+      <c r="C2" s="138"/>
       <c r="D2" s="59" t="s">
         <v>19</v>
       </c>
@@ -8820,54 +8851,54 @@
       <c r="G2" s="59" t="s">
         <v>106</v>
       </c>
-      <c r="H2" s="129" t="s">
+      <c r="H2" s="139" t="s">
         <v>134</v>
       </c>
-      <c r="I2" s="130"/>
+      <c r="I2" s="140"/>
     </row>
     <row r="3" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B3" s="133" t="s">
+      <c r="B3" s="135" t="s">
         <v>155</v>
       </c>
-      <c r="C3" s="134"/>
+      <c r="C3" s="136"/>
       <c r="D3" s="40"/>
       <c r="E3" s="41"/>
       <c r="F3" s="41"/>
       <c r="G3" s="41"/>
-      <c r="H3" s="131"/>
-      <c r="I3" s="132"/>
+      <c r="H3" s="141"/>
+      <c r="I3" s="142"/>
     </row>
     <row r="4" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B4" s="133" t="s">
+      <c r="B4" s="135" t="s">
         <v>156</v>
       </c>
-      <c r="C4" s="134"/>
+      <c r="C4" s="136"/>
       <c r="D4" s="40"/>
       <c r="E4" s="41"/>
       <c r="F4" s="41"/>
       <c r="G4" s="41"/>
-      <c r="H4" s="131"/>
-      <c r="I4" s="132"/>
+      <c r="H4" s="141"/>
+      <c r="I4" s="142"/>
     </row>
     <row r="5" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B5" s="133"/>
-      <c r="C5" s="134"/>
+      <c r="B5" s="135"/>
+      <c r="C5" s="136"/>
       <c r="D5" s="40"/>
       <c r="E5" s="41"/>
       <c r="F5" s="41"/>
       <c r="G5" s="41"/>
-      <c r="H5" s="131"/>
-      <c r="I5" s="132"/>
+      <c r="H5" s="141"/>
+      <c r="I5" s="142"/>
     </row>
     <row r="6" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B6" s="133"/>
-      <c r="C6" s="134"/>
+      <c r="B6" s="135"/>
+      <c r="C6" s="136"/>
       <c r="D6" s="40"/>
       <c r="E6" s="40"/>
       <c r="F6" s="41"/>
       <c r="G6" s="41"/>
-      <c r="H6" s="131"/>
-      <c r="I6" s="132"/>
+      <c r="H6" s="141"/>
+      <c r="I6" s="142"/>
     </row>
     <row r="8" spans="2:12" ht="16.5" x14ac:dyDescent="0.35">
       <c r="B8" s="42" t="s">
@@ -9163,30 +9194,30 @@
   <sheetData>
     <row r="1" spans="2:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="2" spans="2:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="I2" s="151"/>
-      <c r="J2" s="151"/>
-      <c r="K2" s="151"/>
-      <c r="L2" s="151"/>
-      <c r="M2" s="151"/>
+      <c r="I2" s="157"/>
+      <c r="J2" s="157"/>
+      <c r="K2" s="157"/>
+      <c r="L2" s="157"/>
+      <c r="M2" s="157"/>
     </row>
     <row r="3" spans="2:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="I3" s="151"/>
-      <c r="J3" s="151"/>
-      <c r="K3" s="151"/>
-      <c r="L3" s="151"/>
-      <c r="M3" s="151"/>
+      <c r="I3" s="157"/>
+      <c r="J3" s="157"/>
+      <c r="K3" s="157"/>
+      <c r="L3" s="157"/>
+      <c r="M3" s="157"/>
     </row>
     <row r="4" spans="2:20" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="I4" s="152"/>
-      <c r="J4" s="152"/>
-      <c r="K4" s="152"/>
-      <c r="L4" s="152"/>
-      <c r="M4" s="152"/>
+      <c r="I4" s="158"/>
+      <c r="J4" s="158"/>
+      <c r="K4" s="158"/>
+      <c r="L4" s="158"/>
+      <c r="M4" s="158"/>
     </row>
     <row r="5" spans="2:20" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="137"/>
-      <c r="C5" s="138"/>
-      <c r="D5" s="138"/>
+      <c r="B5" s="143"/>
+      <c r="C5" s="144"/>
+      <c r="D5" s="144"/>
       <c r="E5" s="51"/>
       <c r="F5" s="51"/>
       <c r="G5" s="51"/>
@@ -9200,14 +9231,14 @@
       <c r="O5" s="51"/>
       <c r="P5" s="51"/>
       <c r="Q5" s="51"/>
-      <c r="R5" s="145"/>
-      <c r="S5" s="145"/>
-      <c r="T5" s="146"/>
+      <c r="R5" s="151"/>
+      <c r="S5" s="151"/>
+      <c r="T5" s="152"/>
     </row>
     <row r="6" spans="2:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="139"/>
-      <c r="C6" s="140"/>
-      <c r="D6" s="140"/>
+      <c r="B6" s="145"/>
+      <c r="C6" s="146"/>
+      <c r="D6" s="146"/>
       <c r="E6" s="53"/>
       <c r="F6" s="53"/>
       <c r="G6" s="53"/>
@@ -9221,14 +9252,14 @@
       <c r="O6" s="53"/>
       <c r="P6" s="53"/>
       <c r="Q6" s="53"/>
-      <c r="R6" s="142"/>
-      <c r="S6" s="142"/>
-      <c r="T6" s="147"/>
+      <c r="R6" s="148"/>
+      <c r="S6" s="148"/>
+      <c r="T6" s="153"/>
     </row>
     <row r="7" spans="2:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="139"/>
-      <c r="C7" s="140"/>
-      <c r="D7" s="140"/>
+      <c r="B7" s="145"/>
+      <c r="C7" s="146"/>
+      <c r="D7" s="146"/>
       <c r="E7" s="53"/>
       <c r="F7" s="53"/>
       <c r="G7" s="53"/>
@@ -9242,14 +9273,14 @@
       <c r="O7" s="53"/>
       <c r="P7" s="53"/>
       <c r="Q7" s="53"/>
-      <c r="R7" s="142"/>
-      <c r="S7" s="142"/>
-      <c r="T7" s="147"/>
+      <c r="R7" s="148"/>
+      <c r="S7" s="148"/>
+      <c r="T7" s="153"/>
     </row>
     <row r="8" spans="2:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="139"/>
-      <c r="C8" s="140"/>
-      <c r="D8" s="140"/>
+      <c r="B8" s="145"/>
+      <c r="C8" s="146"/>
+      <c r="D8" s="146"/>
       <c r="E8" s="53"/>
       <c r="F8" s="53"/>
       <c r="G8" s="53"/>
@@ -9263,14 +9294,14 @@
       <c r="O8" s="53"/>
       <c r="P8" s="53"/>
       <c r="Q8" s="53"/>
-      <c r="R8" s="142"/>
-      <c r="S8" s="142"/>
-      <c r="T8" s="147"/>
+      <c r="R8" s="148"/>
+      <c r="S8" s="148"/>
+      <c r="T8" s="153"/>
     </row>
     <row r="9" spans="2:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="139"/>
-      <c r="C9" s="140"/>
-      <c r="D9" s="140"/>
+      <c r="B9" s="145"/>
+      <c r="C9" s="146"/>
+      <c r="D9" s="146"/>
       <c r="E9" s="53"/>
       <c r="F9" s="53"/>
       <c r="G9" s="53"/>
@@ -9284,14 +9315,14 @@
       <c r="O9" s="53"/>
       <c r="P9" s="53"/>
       <c r="Q9" s="53"/>
-      <c r="R9" s="142"/>
-      <c r="S9" s="142"/>
-      <c r="T9" s="147"/>
+      <c r="R9" s="148"/>
+      <c r="S9" s="148"/>
+      <c r="T9" s="153"/>
     </row>
     <row r="10" spans="2:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="139"/>
-      <c r="C10" s="140"/>
-      <c r="D10" s="140"/>
+      <c r="B10" s="145"/>
+      <c r="C10" s="146"/>
+      <c r="D10" s="146"/>
       <c r="E10" s="53"/>
       <c r="F10" s="53"/>
       <c r="G10" s="53"/>
@@ -9305,14 +9336,14 @@
       <c r="O10" s="53"/>
       <c r="P10" s="53"/>
       <c r="Q10" s="53"/>
-      <c r="R10" s="142"/>
-      <c r="S10" s="142"/>
-      <c r="T10" s="147"/>
+      <c r="R10" s="148"/>
+      <c r="S10" s="148"/>
+      <c r="T10" s="153"/>
     </row>
     <row r="11" spans="2:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="139"/>
-      <c r="C11" s="140"/>
-      <c r="D11" s="140"/>
+      <c r="B11" s="145"/>
+      <c r="C11" s="146"/>
+      <c r="D11" s="146"/>
       <c r="E11" s="53"/>
       <c r="F11" s="53"/>
       <c r="G11" s="53"/>
@@ -9326,14 +9357,14 @@
       <c r="O11" s="53"/>
       <c r="P11" s="53"/>
       <c r="Q11" s="53"/>
-      <c r="R11" s="142"/>
-      <c r="S11" s="142"/>
-      <c r="T11" s="147"/>
+      <c r="R11" s="148"/>
+      <c r="S11" s="148"/>
+      <c r="T11" s="153"/>
     </row>
     <row r="12" spans="2:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="139"/>
-      <c r="C12" s="140"/>
-      <c r="D12" s="140"/>
+      <c r="B12" s="145"/>
+      <c r="C12" s="146"/>
+      <c r="D12" s="146"/>
       <c r="E12" s="53"/>
       <c r="F12" s="53"/>
       <c r="G12" s="53"/>
@@ -9347,14 +9378,14 @@
       <c r="O12" s="53"/>
       <c r="P12" s="53"/>
       <c r="Q12" s="53"/>
-      <c r="R12" s="142"/>
-      <c r="S12" s="142"/>
-      <c r="T12" s="147"/>
+      <c r="R12" s="148"/>
+      <c r="S12" s="148"/>
+      <c r="T12" s="153"/>
     </row>
     <row r="13" spans="2:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="139"/>
-      <c r="C13" s="140"/>
-      <c r="D13" s="140"/>
+      <c r="B13" s="145"/>
+      <c r="C13" s="146"/>
+      <c r="D13" s="146"/>
       <c r="E13" s="53"/>
       <c r="F13" s="53"/>
       <c r="G13" s="53"/>
@@ -9368,14 +9399,14 @@
       <c r="O13" s="53"/>
       <c r="P13" s="53"/>
       <c r="Q13" s="53"/>
-      <c r="R13" s="142"/>
-      <c r="S13" s="142"/>
-      <c r="T13" s="147"/>
+      <c r="R13" s="148"/>
+      <c r="S13" s="148"/>
+      <c r="T13" s="153"/>
     </row>
     <row r="14" spans="2:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="139"/>
-      <c r="C14" s="140"/>
-      <c r="D14" s="140"/>
+      <c r="B14" s="145"/>
+      <c r="C14" s="146"/>
+      <c r="D14" s="146"/>
       <c r="E14" s="53"/>
       <c r="F14" s="53"/>
       <c r="G14" s="53"/>
@@ -9389,14 +9420,14 @@
       <c r="O14" s="53"/>
       <c r="P14" s="53"/>
       <c r="Q14" s="53"/>
-      <c r="R14" s="142"/>
-      <c r="S14" s="142"/>
-      <c r="T14" s="147"/>
+      <c r="R14" s="148"/>
+      <c r="S14" s="148"/>
+      <c r="T14" s="153"/>
     </row>
     <row r="15" spans="2:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="139"/>
-      <c r="C15" s="140"/>
-      <c r="D15" s="140"/>
+      <c r="B15" s="145"/>
+      <c r="C15" s="146"/>
+      <c r="D15" s="146"/>
       <c r="E15" s="53"/>
       <c r="F15" s="53"/>
       <c r="G15" s="53"/>
@@ -9410,9 +9441,9 @@
       <c r="O15" s="53"/>
       <c r="P15" s="53"/>
       <c r="Q15" s="53"/>
-      <c r="R15" s="142"/>
-      <c r="S15" s="142"/>
-      <c r="T15" s="147"/>
+      <c r="R15" s="148"/>
+      <c r="S15" s="148"/>
+      <c r="T15" s="153"/>
     </row>
     <row r="16" spans="2:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="52"/>
@@ -9730,9 +9761,9 @@
       <c r="T30" s="54"/>
     </row>
     <row r="31" spans="2:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B31" s="141"/>
-      <c r="C31" s="142"/>
-      <c r="D31" s="142"/>
+      <c r="B31" s="147"/>
+      <c r="C31" s="148"/>
+      <c r="D31" s="148"/>
       <c r="E31" s="53"/>
       <c r="F31" s="53"/>
       <c r="G31" s="53"/>
@@ -9746,14 +9777,14 @@
       <c r="O31" s="53"/>
       <c r="P31" s="53"/>
       <c r="Q31" s="53"/>
-      <c r="R31" s="140"/>
-      <c r="S31" s="140"/>
-      <c r="T31" s="148"/>
+      <c r="R31" s="146"/>
+      <c r="S31" s="146"/>
+      <c r="T31" s="154"/>
     </row>
     <row r="32" spans="2:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B32" s="141"/>
-      <c r="C32" s="142"/>
-      <c r="D32" s="142"/>
+      <c r="B32" s="147"/>
+      <c r="C32" s="148"/>
+      <c r="D32" s="148"/>
       <c r="E32" s="53"/>
       <c r="F32" s="53"/>
       <c r="G32" s="53"/>
@@ -9767,14 +9798,14 @@
       <c r="O32" s="53"/>
       <c r="P32" s="53"/>
       <c r="Q32" s="53"/>
-      <c r="R32" s="140"/>
-      <c r="S32" s="140"/>
-      <c r="T32" s="148"/>
+      <c r="R32" s="146"/>
+      <c r="S32" s="146"/>
+      <c r="T32" s="154"/>
     </row>
     <row r="33" spans="2:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B33" s="141"/>
-      <c r="C33" s="142"/>
-      <c r="D33" s="142"/>
+      <c r="B33" s="147"/>
+      <c r="C33" s="148"/>
+      <c r="D33" s="148"/>
       <c r="E33" s="53"/>
       <c r="F33" s="53"/>
       <c r="G33" s="53"/>
@@ -9788,14 +9819,14 @@
       <c r="O33" s="53"/>
       <c r="P33" s="53"/>
       <c r="Q33" s="53"/>
-      <c r="R33" s="140"/>
-      <c r="S33" s="140"/>
-      <c r="T33" s="148"/>
+      <c r="R33" s="146"/>
+      <c r="S33" s="146"/>
+      <c r="T33" s="154"/>
     </row>
     <row r="34" spans="2:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B34" s="141"/>
-      <c r="C34" s="142"/>
-      <c r="D34" s="142"/>
+      <c r="B34" s="147"/>
+      <c r="C34" s="148"/>
+      <c r="D34" s="148"/>
       <c r="E34" s="53"/>
       <c r="F34" s="53"/>
       <c r="G34" s="53"/>
@@ -9809,14 +9840,14 @@
       <c r="O34" s="53"/>
       <c r="P34" s="53"/>
       <c r="Q34" s="53"/>
-      <c r="R34" s="140"/>
-      <c r="S34" s="140"/>
-      <c r="T34" s="148"/>
+      <c r="R34" s="146"/>
+      <c r="S34" s="146"/>
+      <c r="T34" s="154"/>
     </row>
     <row r="35" spans="2:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B35" s="141"/>
-      <c r="C35" s="142"/>
-      <c r="D35" s="142"/>
+      <c r="B35" s="147"/>
+      <c r="C35" s="148"/>
+      <c r="D35" s="148"/>
       <c r="E35" s="53"/>
       <c r="F35" s="53"/>
       <c r="G35" s="53"/>
@@ -9830,14 +9861,14 @@
       <c r="O35" s="53"/>
       <c r="P35" s="53"/>
       <c r="Q35" s="53"/>
-      <c r="R35" s="140"/>
-      <c r="S35" s="140"/>
-      <c r="T35" s="148"/>
+      <c r="R35" s="146"/>
+      <c r="S35" s="146"/>
+      <c r="T35" s="154"/>
     </row>
     <row r="36" spans="2:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B36" s="141"/>
-      <c r="C36" s="142"/>
-      <c r="D36" s="142"/>
+      <c r="B36" s="147"/>
+      <c r="C36" s="148"/>
+      <c r="D36" s="148"/>
       <c r="E36" s="53"/>
       <c r="F36" s="53"/>
       <c r="G36" s="53"/>
@@ -9851,14 +9882,14 @@
       <c r="O36" s="53"/>
       <c r="P36" s="53"/>
       <c r="Q36" s="53"/>
-      <c r="R36" s="140"/>
-      <c r="S36" s="140"/>
-      <c r="T36" s="148"/>
+      <c r="R36" s="146"/>
+      <c r="S36" s="146"/>
+      <c r="T36" s="154"/>
     </row>
     <row r="37" spans="2:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B37" s="141"/>
-      <c r="C37" s="142"/>
-      <c r="D37" s="142"/>
+      <c r="B37" s="147"/>
+      <c r="C37" s="148"/>
+      <c r="D37" s="148"/>
       <c r="E37" s="53"/>
       <c r="F37" s="53"/>
       <c r="G37" s="53"/>
@@ -9872,14 +9903,14 @@
       <c r="O37" s="53"/>
       <c r="P37" s="53"/>
       <c r="Q37" s="53"/>
-      <c r="R37" s="140"/>
-      <c r="S37" s="140"/>
-      <c r="T37" s="148"/>
+      <c r="R37" s="146"/>
+      <c r="S37" s="146"/>
+      <c r="T37" s="154"/>
     </row>
     <row r="38" spans="2:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B38" s="141"/>
-      <c r="C38" s="142"/>
-      <c r="D38" s="142"/>
+      <c r="B38" s="147"/>
+      <c r="C38" s="148"/>
+      <c r="D38" s="148"/>
       <c r="E38" s="53"/>
       <c r="F38" s="53"/>
       <c r="G38" s="53"/>
@@ -9893,14 +9924,14 @@
       <c r="O38" s="53"/>
       <c r="P38" s="53"/>
       <c r="Q38" s="53"/>
-      <c r="R38" s="140"/>
-      <c r="S38" s="140"/>
-      <c r="T38" s="148"/>
+      <c r="R38" s="146"/>
+      <c r="S38" s="146"/>
+      <c r="T38" s="154"/>
     </row>
     <row r="39" spans="2:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B39" s="141"/>
-      <c r="C39" s="142"/>
-      <c r="D39" s="142"/>
+      <c r="B39" s="147"/>
+      <c r="C39" s="148"/>
+      <c r="D39" s="148"/>
       <c r="E39" s="53"/>
       <c r="F39" s="53"/>
       <c r="G39" s="53"/>
@@ -9914,14 +9945,14 @@
       <c r="O39" s="53"/>
       <c r="P39" s="53"/>
       <c r="Q39" s="53"/>
-      <c r="R39" s="140"/>
-      <c r="S39" s="140"/>
-      <c r="T39" s="148"/>
+      <c r="R39" s="146"/>
+      <c r="S39" s="146"/>
+      <c r="T39" s="154"/>
     </row>
     <row r="40" spans="2:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B40" s="141"/>
-      <c r="C40" s="142"/>
-      <c r="D40" s="142"/>
+      <c r="B40" s="147"/>
+      <c r="C40" s="148"/>
+      <c r="D40" s="148"/>
       <c r="E40" s="53"/>
       <c r="F40" s="53"/>
       <c r="G40" s="53"/>
@@ -9935,14 +9966,14 @@
       <c r="O40" s="53"/>
       <c r="P40" s="53"/>
       <c r="Q40" s="53"/>
-      <c r="R40" s="140"/>
-      <c r="S40" s="140"/>
-      <c r="T40" s="148"/>
+      <c r="R40" s="146"/>
+      <c r="S40" s="146"/>
+      <c r="T40" s="154"/>
     </row>
     <row r="41" spans="2:20" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="143"/>
-      <c r="C41" s="144"/>
-      <c r="D41" s="144"/>
+      <c r="B41" s="149"/>
+      <c r="C41" s="150"/>
+      <c r="D41" s="150"/>
       <c r="E41" s="55"/>
       <c r="F41" s="55"/>
       <c r="G41" s="55"/>
@@ -9956,9 +9987,9 @@
       <c r="O41" s="55"/>
       <c r="P41" s="55"/>
       <c r="Q41" s="55"/>
-      <c r="R41" s="149"/>
-      <c r="S41" s="149"/>
-      <c r="T41" s="150"/>
+      <c r="R41" s="155"/>
+      <c r="S41" s="155"/>
+      <c r="T41" s="156"/>
     </row>
     <row r="42" spans="2:20" ht="14.25" thickTop="1" x14ac:dyDescent="0.15"/>
   </sheetData>
@@ -9997,10 +10028,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B2" s="135" t="s">
+      <c r="B2" s="137" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="136"/>
+      <c r="C2" s="138"/>
       <c r="D2" s="59" t="s">
         <v>19</v>
       </c>
@@ -10018,10 +10049,10 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B3" s="133" t="s">
+      <c r="B3" s="135" t="s">
         <v>199</v>
       </c>
-      <c r="C3" s="134"/>
+      <c r="C3" s="136"/>
       <c r="D3" s="40"/>
       <c r="E3" s="40"/>
       <c r="F3" s="41"/>
@@ -10029,8 +10060,8 @@
       <c r="H3" s="41"/>
     </row>
     <row r="4" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B4" s="133"/>
-      <c r="C4" s="134"/>
+      <c r="B4" s="135"/>
+      <c r="C4" s="136"/>
       <c r="D4" s="40"/>
       <c r="E4" s="40"/>
       <c r="F4" s="41"/>
@@ -10038,8 +10069,8 @@
       <c r="H4" s="41"/>
     </row>
     <row r="5" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B5" s="133"/>
-      <c r="C5" s="134"/>
+      <c r="B5" s="135"/>
+      <c r="C5" s="136"/>
       <c r="D5" s="40"/>
       <c r="E5" s="40"/>
       <c r="F5" s="41"/>
@@ -10047,8 +10078,8 @@
       <c r="H5" s="41"/>
     </row>
     <row r="6" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B6" s="133"/>
-      <c r="C6" s="134"/>
+      <c r="B6" s="135"/>
+      <c r="C6" s="136"/>
       <c r="D6" s="40"/>
       <c r="E6" s="40"/>
       <c r="F6" s="40"/>
